--- a/examples/advanced_01/reporting engine input/ObservedData/Hardin_88_PO_100mg_QD_day1_Itra.xlsx
+++ b/examples/advanced_01/reporting engine input/ObservedData/Hardin_88_PO_100mg_QD_day1_Itra.xlsx
@@ -19,10 +19,10 @@
     <t>time  [h]</t>
   </si>
   <si>
-    <t>conc S.D. [mg/l]</t>
+    <t>conc  [mg/l]</t>
   </si>
   <si>
-    <t>conc  [mg/l]</t>
+    <t>conc S.D. [mg/l]</t>
   </si>
 </sst>
 </file>
@@ -142,10 +142,10 @@
         <v>0.5</v>
       </c>
       <c r="B2" s="15">
+        <v>0.012600000016391277</v>
+      </c>
+      <c r="C2" s="15">
         <v>0.021600000560283661</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0.012600000016391277</v>
       </c>
     </row>
     <row r="3">
@@ -153,10 +153,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="15">
+        <v>0.05260000005364418</v>
+      </c>
+      <c r="C3" s="15">
         <v>0.061400000005960464</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0.05260000005364418</v>
       </c>
     </row>
     <row r="4">
@@ -164,10 +164,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="15">
+        <v>0.08829999715089798</v>
+      </c>
+      <c r="C4" s="15">
         <v>0.05950000137090683</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0.08829999715089798</v>
       </c>
     </row>
     <row r="5">
@@ -175,10 +175,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="15">
+        <v>0.094599999487400055</v>
+      </c>
+      <c r="C5" s="15">
         <v>0.052200000733137131</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0.094599999487400055</v>
       </c>
     </row>
     <row r="6">
@@ -186,10 +186,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="15">
+        <v>0.08060000091791153</v>
+      </c>
+      <c r="C6" s="15">
         <v>0.038199998438358307</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0.08060000091791153</v>
       </c>
     </row>
     <row r="7">
@@ -197,10 +197,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15">
+        <v>0.069400005042552948</v>
+      </c>
+      <c r="C7" s="15">
         <v>0.031199999153614044</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.069400005042552948</v>
       </c>
     </row>
     <row r="8">
@@ -208,10 +208,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="15">
+        <v>0.049100000411272049</v>
+      </c>
+      <c r="C8" s="15">
         <v>0.01940000057220459</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.049100000411272049</v>
       </c>
     </row>
     <row r="9">
@@ -219,10 +219,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="15">
+        <v>0.029800001531839371</v>
+      </c>
+      <c r="C9" s="15">
         <v>0.012600000016391277</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.029800001531839371</v>
       </c>
     </row>
     <row r="10">
@@ -230,10 +230,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="15">
+        <v>0.024299999698996544</v>
+      </c>
+      <c r="C10" s="15">
         <v>0.011300000362098217</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0.024299999698996544</v>
       </c>
     </row>
     <row r="11">
@@ -241,10 +241,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="15">
+        <v>0.014999999664723873</v>
+      </c>
+      <c r="C11" s="15">
         <v>0.0087999999523162842</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0.014999999664723873</v>
       </c>
     </row>
     <row r="12">
@@ -252,10 +252,10 @@
         <v>48</v>
       </c>
       <c r="B12" s="15">
+        <v>0.0065999999642372131</v>
+      </c>
+      <c r="C12" s="15">
         <v>0.00279999990016222</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0.0065999999642372131</v>
       </c>
     </row>
   </sheetData>
